--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/39_Isparta_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/39_Isparta_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45672E0E-2430-4515-B79A-A12422FB174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DBC76D-3F4E-463F-B239-481888B15E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BDDEB6B-ADFA-42A1-BA0D-E7896454D923}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{033D5F45-313E-46FE-ADC0-78F77E58427E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{2C973D39-99F0-4896-9549-A508EA954F0F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{1F13DBDD-02F8-427B-A52A-DB66336CFB20}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{6684384C-1160-453A-B465-ECF2C82F7D83}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{39F13CBF-6795-4DB9-925D-0EDE0AC80B93}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B8D8E369-0B99-4CD3-AA19-B22A53CFC3D7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{353B38D7-57BA-46F9-8A08-12C5829DC0F2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{7DD5BDE0-5C91-44CD-94B7-F892A998EBDD}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{B81903C5-30FB-4541-B211-A143E6826FEF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB0F2D-9D59-4B6A-A164-B22A5397FA36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB849D-1DB6-4A62-8403-E21AC17C1F03}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -2448,18 +2448,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E7240D6E-B7CC-47D2-B2CE-995558A2F820}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D6D4A3F-78D9-42E7-9C41-099DB919384E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9908AF6D-CFAD-415E-8350-FB46E9695F68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F1E7A539-0A8E-42C9-AA14-8C3E1660C9E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{94A6E5CF-5A48-4A71-A753-D481720F5F51}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C92CD056-D389-4DE8-9134-354F557FACE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FCF8397A-6EE1-4E3C-B1F0-9104A3E6638D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEF4A08E-F888-4608-948C-FA72129A84EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3AC9389-64DF-416E-9EBC-74C29821A416}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9E389243-3D77-4682-8D13-204B795E0C26}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7137017-32D5-4635-BA9C-E1A5F382C5BB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{19233027-EA57-4AFD-953F-44010135BB00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EFE598E4-5344-4EC0-822E-1D973346A6BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EEBD972A-5CC2-48E8-A036-3D43C9D76568}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1CB3EC12-0D8E-4650-A66A-870813EB248C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ECD5E51F-E649-4C9B-AEFC-40D8EFDE29F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{12836D56-28BA-497B-9DBE-CD05A6CF313D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7D7C72F-5049-4230-9A0E-CA0F11CD3E89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{88EA5487-A8D1-4778-ABC1-E8128E0269E0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BEC3A442-FC8A-400C-928A-5629B48AA0B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E4D7C40E-1051-45A8-B9E9-9F5B489F57A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E4690F79-B8C3-454B-BEA1-4F21B83F65C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5190DF78-CF2C-4A66-9DEF-C7EFEFD44947}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E754042-5405-4FD0-BA29-DD2D62B3A48E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2472,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB32416-0196-414C-B2F5-B08D7AE13148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9EB89-667C-4955-9243-53883B409670}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -3666,18 +3666,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A06B5D53-2D11-411F-A4F7-4C22A5CD4EDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AADB7832-B8E7-4942-8C3E-8643BC179A7D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{098A19E9-0465-4B89-9C50-484C1B629095}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DD6D3788-3250-4908-A04D-303F9EC7F905}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B2A4858-A76F-4968-BF70-2EFCEB9102FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD19D60E-234D-42EB-BD77-258963E8463E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8CBB6770-903D-41A1-BED0-6A26AA2F60FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC083E58-0EBA-493D-8003-4C39553AED6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FDB5E81B-6C79-4E40-92B7-C8FB14B8755B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4893B603-0DDD-4513-9A0A-242901D40BC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B03DA9E0-50EF-4147-AC67-CD0553B228FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7F64A443-A7A6-4C29-A6C6-B0413FBD05E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3AA5609-B106-48CF-B6EB-D92119C1D4E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{96F601EF-839A-41B4-AC61-F4E449B3B8F1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D0C0C108-C3F1-4399-ABC4-8C78CAE777E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{991C9555-8CAF-4A5A-BAE7-EAA7DCF4FD50}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B1D8BB4B-D95F-4008-84EA-A69307D99A6B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CC0DE0C0-2E12-4648-8A19-EAA7E817BFE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{52D72607-2185-486A-9BD3-BAD007CA7430}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{490EEB34-3D9C-466C-BA89-A48F63122131}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{846C454C-5410-499A-95AD-23846EB6A6B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{845BBD39-C187-4129-A17E-460AA1CE0FF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A9840ACA-9AC0-4DFC-B16D-46886C817847}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC58E625-743B-4FBF-AA9A-1945F7FA82DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3690,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6901AEDF-2078-460D-92FB-3A0EA5A2460C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDFC885-5E01-4D7C-A429-30FB988DE939}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -4876,18 +4876,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F6E7A48D-8EF5-4438-A9BE-CDD02B8DF8D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8270C27C-5461-411D-BFAC-DAF092C59155}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{683C1E3B-21B9-4CC4-BA15-DC7449D002EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7BE2E29A-F6C7-4762-A013-42290ED3C0DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9F092F17-0400-4AC5-9BA4-F612B27FE040}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FCF52BD0-EC1D-489A-81FF-FD2ECB46F565}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12973BDC-D0D8-4992-8462-EC194C508B09}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2CB60B17-4FAD-4011-A91B-7383E33658C0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AC2146A7-5C5B-45B8-84A4-39951671B10E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D2E63D68-5402-4E33-B5F8-662D3DE85346}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0F3C318F-51C7-4A3D-8E61-1C66B0F432C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D0E36EDF-39D5-43EE-A490-BCF92E310184}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{68482C80-14CD-4DA9-94E7-BEAE60E5B0F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DE1B1DF7-1CF9-48E8-A2F1-FBBD3C69090B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D0E9780B-C84C-4FBF-B9F2-68AA7D9A80AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{89390A8E-0587-4862-BBAF-2D54EE7D0955}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{18094562-D27D-431E-8A6E-BC57E9E1D86A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8EC340D6-395F-4035-90CA-5847180CF4C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1D4D6479-1B99-4129-938B-F3408CFDE5A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{552E41B6-06A6-4239-80DB-ECB2ADFDE4C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F78FE8F2-61B9-4F8B-9B16-BAB757BA01C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DA7690F9-3B00-4CC2-B727-AA41EAD27583}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5ED4E94B-8470-45DB-8DA8-735A40CDB5CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B7526940-931A-4C0D-8043-0D9080952606}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4900,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBCDC9D-A813-45D0-BF53-E1A6F9A87FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18D608-4FF9-4EF9-95DF-C9B1953C1A50}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -6084,18 +6084,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3861F1A1-8FBA-42BC-9E14-CF9B6C00DF5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F1B2407C-825D-4E86-8F7C-6F1FC888A2CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AE8FB1FB-637D-468D-A99D-36EA3E1AD69F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5DE6B62E-427B-4910-814C-178160508CA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3C99F6EF-B0ED-4F26-809F-13AA2F6E1F0E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{001C50EF-1D7F-49A9-A8AF-BB3C5A60E91A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C7EBAA81-6841-417C-89FF-76BA0866F388}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{79F87086-EA5C-4074-8F8D-C61EB421A528}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1DDEC119-2627-4FA6-8D6D-18DBC27C8D4A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F6C23F40-D5E6-4F67-AC5F-FE5686674FBC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{64E4197D-7BD9-4AA1-B203-982B7EB65157}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{711B0C72-0D79-4424-BBFB-0B14C9841202}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84D3CC34-DD69-4A59-84A7-625DCEC9CEB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{08A7FA39-A0AC-41EB-8295-A6620E28D0B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4CB20D35-09B4-4A99-AE7F-392707914975}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1FB23B58-983A-4BF0-97C7-BD9F5498BB25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A2A063BF-BED8-4155-BF27-116222739969}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E6C8F9C8-1DED-4C70-B648-D5225225BE4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3BFB4ACA-1308-4C3D-89D1-D00FFB250F41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0E88DB93-4B58-4D30-B765-8AF719799898}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1539F8D7-F89E-403F-843F-05652BAF5BA1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0FE0B8E5-BEA3-4CAC-94F7-E5F17D406BE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C8D8CEF-3C23-42C5-8A1E-94BA6141DAA2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{688FE270-4167-4F02-8F02-495A8C9B3D1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6108,7 +6108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC868FBC-7042-4D64-BE7B-EEA469B154A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1038E23-388C-4491-80D3-0CA254221C4D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -7324,18 +7324,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DDFDC00C-21A5-4E1C-A165-313A39743A1D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F82962DD-DB17-4D7D-B98E-481732916C9A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7660AD4C-8182-48ED-B3A3-3C02FD5D7F7E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D481D8D-6DB3-44A8-BFD3-EA547CB4632E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4718C8AD-F77F-425A-ADD3-9B9B94E5C31E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{24D614F7-0E96-448E-9893-73F0FA88B034}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{58266666-12F6-49E0-AA69-01D523934486}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8CD9EAC6-FCBA-4696-BB40-061CDB518072}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5E3CF0A2-F09B-406E-A732-8861CD3CA506}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7DA58023-F3A5-4102-B2F1-56B11FA799BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EF80DEF7-BED3-498F-97E7-00F1FEADC54B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{57835589-263C-4236-9A9C-D22057498519}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DB9E144B-6D73-4E58-85B4-5162E364CC6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7A758727-CE50-4387-B5DF-45D94A5D85B4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F294AD7C-4F4B-45C2-B4C9-42B20B7DF4CF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{61CC5382-7560-4898-A4A5-70CC067928FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AF19B332-14C6-47CE-BDB5-B021C84F1FB9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FC59D982-4B43-451E-A916-FDAA71C5679F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{92B8F2F7-EFD0-440A-8744-36CEDA3CC59D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F14AD646-FC35-47A3-BF15-8046C53F0C23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ADD3E4E1-4D34-402D-8BE1-203F9A363502}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4FD5E956-116B-46F7-ADF9-C7F2D44480B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{54939902-6A83-49DE-920A-1D0B01FBAB77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8EE13368-3753-4A2E-9D85-83A6CAE85613}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7348,7 +7348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD5934-A8B8-41EB-BBBE-F7D7F8FC9A76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5491D3A-5ACB-4EF8-ADDF-2353B4403891}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -8564,18 +8564,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7E37F58B-EB4E-477C-B651-2FC739273FAD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E3EDEB12-A56C-4050-8C45-A4771FD4585F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7AC6D915-10AA-4D39-9FF7-C215E1326420}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0234EA3E-1117-4BC4-A299-616B03864E1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8661C765-2940-4431-AB6A-54A1AF0734A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7090E5F-0053-4908-9FE0-02C92526073E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E75E9AC-1B3E-431D-A84A-FB820412C928}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8061D547-860E-490A-88C9-BFBF459D878B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5D39D0C5-A6F5-4E6D-B311-3B8F9A0BEDB3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06307A93-823A-4801-90BD-BC33028CA607}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{13430A03-2A3C-4484-B9FD-724C91255EA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F10C00C9-2F20-4E2F-A77F-B602C364D5D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DE59C2DA-B4A2-4B1B-9371-7737B963F2B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A255E45-3D02-41E0-933E-BF1F02A798BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DE4AB3D9-E628-46E2-9281-3B0AE82E338A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE53F14C-F7B4-4FF8-B8A7-7835A1A79463}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{10416DBC-30F3-4629-A133-A913F0F70E19}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89F33BB8-3378-4651-B301-D24562A91D13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0C2BE4FE-504D-4FB5-BFC0-64542E026841}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2B9776BC-5C99-4F59-9BFE-7A6F7151AA72}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{925BB713-7093-4D0D-9C3D-B1EB077EABB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{39E0C75A-A6D4-4E68-8889-A33308770EC4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EDDB78B0-4A33-4B59-841A-0C3A80EA8DA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE045610-C0EF-412E-A42A-DF3EB68C65F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE882300-D744-42CB-B44B-38098D50555E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5A9C3-AD65-498A-A328-9910149B9752}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -9804,18 +9804,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{57B817A1-0CAA-4D94-A3B2-DEC8BCF4B9DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A4FE347C-13F3-4F48-A3A5-A83078185096}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8892D9EE-9855-47A6-9698-E5192476908B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D9D2233A-6E2D-47E2-BFC2-152310A274A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{84068802-165F-40B1-8211-08AA0D6826C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4C2065FB-0272-4680-9EAC-685C5DB126B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E333AEB-B6C7-4882-9C2E-7EADF7BAFE0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFF26863-7262-497E-911C-9EC41F94B0FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8B109B2A-9AF0-41DE-A880-3E0E045CACCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D59BEE1B-DB2D-4E34-A097-6A386B097B06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6DD8CA39-BAB0-4501-A9F8-FF2A4FC445FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{462B783D-782E-4515-BDB9-07BC2121BCD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA6B4566-D313-4A14-A5EE-156A0DC004D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E2DCF758-F108-4E07-909B-1AE075119329}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0C8B3195-05AA-4B3E-8EBD-2ACC0B3B63E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1ED435E1-1A54-4588-9624-1E6B628BE621}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{76167437-39DA-4B67-B2E8-B35D151E9139}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D9D4F60C-BEC1-4807-A9E7-08A4A4274592}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3AD9E891-C4FB-4F8D-97B0-D57A9953DDEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E1739E9B-7F9A-4BEA-B12B-CF1929EDBD61}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EAFEFED3-65FB-4E0F-8FDC-C25F452F5518}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7257854C-D156-47DD-97CA-7CDC7AB78B3C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2BBEA23-06DD-4868-9658-8022A7886083}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C61E5E29-8614-44A4-812D-C74E81747C49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9828,7 +9828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD9E87-8EF6-4655-9054-9DBA63F3C312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CCC0EA-6579-49B9-A63B-5D15B998FD3B}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -11040,18 +11040,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1D3E8ACA-32E5-4FCA-95BB-8998FD656C9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8752591B-6110-4E68-9437-436604C56D9F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{92B51648-5C30-4C0F-9A54-DE1D035E3885}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{46D1BB4A-86C9-4C57-A9B1-B9AC8D2530A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4B8F057F-9F5F-4EA0-B6C0-6362AD3516D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9460BA90-2D22-443A-B103-F8A61F23D7AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A948D5D8-03AC-47CA-8EB4-4D8E806F8268}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2A01933A-A661-4B34-BA99-8729907621C0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{90D22240-FE52-4715-90B7-B507FF64757A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E700706F-297C-48C9-B66B-2FBA3C27253C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BC16DF83-7F40-434F-8E93-1B9895910B0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC4A5944-7CB9-437C-982F-91D1F9EC78BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{729736F0-C1B0-4B1D-8FFF-1FC31732EAA1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B66F9E41-1DB4-48C3-AF45-26C9C12D6FEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FC91B7AF-24F7-4F53-81CD-DCC9CDBB06A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{621D7673-CAA0-4D58-8C96-E4A0EC515B0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{80FD8613-50E4-453B-989E-EC242C45AE2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{09458247-366A-4645-954A-037340021EC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7DEE41E8-84E5-4AB2-96D2-DB4B910339B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E441E157-712C-47BC-A935-0A8A64474715}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F1B9DF2-28C0-4271-BC98-7A34F65B5254}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{14C7A768-8E60-4072-B50B-3A1BB21C08D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{204072CF-34F7-4EF8-80AE-42740F1DEF7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DA8E54CF-9EE0-4EAA-921E-2CE16EED7E23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11064,7 +11064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10452060-252D-4E51-858F-6C767D44982C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B21EF7-02A6-4B56-AF13-72E24FF9B4CE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -12278,18 +12278,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3CCBDE87-7F68-4B9E-B709-D30D28966BD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4BA3E363-8D70-41F2-8FCA-FC6F878E7C21}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{19816251-EF31-426D-B204-75F709B5829F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F1CEA9EA-6A37-445C-BB69-9571C91CBD30}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5592F5C6-09F0-4D34-90CC-FD6A5908AEBC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0CAD86E-2180-43D0-AA47-F9EF99935D02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{291519C8-DA03-4283-9329-053A260AA0D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{98304635-A685-421F-9246-321502D03EFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2FE90656-356B-4794-8019-368A0E3CB309}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BE33920-A659-4C23-AEF1-D7016136F3CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F1EF39D-0DD9-4034-9D12-A2B8D2EDE24B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DAD893DE-FCE1-4E49-9960-930A2F46BBAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1AF8FA1A-F125-48E9-B668-2891EACA5751}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A8D2850B-7452-4166-BA8B-EF0443239887}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CA8E7AF3-A55E-4B81-8833-6CE138F33D43}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C55E4223-214C-4DAF-9857-D62C0E9834CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{69D3D42C-E399-48D8-888D-EAE17A702BA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B220A1E3-7180-48D0-A86C-C398C27DCD21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C6E606BF-B021-49C6-B6E3-248030525015}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2B20A957-89E4-4437-AB49-0A82780D97A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{18744358-C27E-45DB-AD2B-0639BE5A763B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E070AEC9-39D6-476C-9733-CA89FB297B44}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3EA6546A-30B0-4E31-8FBF-00DC249570C7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B0B7CEF5-6E4E-40AC-A467-09A3ACD1CA28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12302,7 +12302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673ACD8-FCED-498E-A20E-2DF04E7D21ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D4A9A8-6F67-4B83-9FA1-72AD700DFA09}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -13510,18 +13510,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6DEF5E97-2953-4BFA-B430-000B89D842B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B65E51D6-9C4E-4D7D-976A-88336F6685A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{932FD2A7-D46F-4844-A9B4-369BF8F75E49}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9EE4D374-858F-4126-A737-0CE87493A53C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{35D1CD53-AAB8-42AB-AF31-94EC00F3885B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{436A563F-A973-479A-BADC-35584E421BE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{577554D6-56F5-4173-9C6E-C940E9578562}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86BD9133-A096-4670-BDAF-4C5E4996A06B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3ECC772A-A5ED-4F5E-BD5D-E65907F2B489}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6E4347C3-207F-4EAA-B117-DCB80F31854D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2732DC60-DCEA-4613-A0C7-7E19115B8420}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E1ECF517-DDC2-4851-BA6E-A3BACC8AFA8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{21E983EE-A5E7-4888-8290-6A722805432A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E7A35173-447B-4EEF-8DD2-F5B5AA647D76}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CDD97DEC-EF4A-467D-8BBA-AE4C2B59E2C9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E6F6483A-A30D-4255-90AB-52C020BF2315}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FD74C070-75E9-49D0-8463-377FA6E4BE60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{140A099E-155F-4DDC-AD1E-A5E70BC36CC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AFB0E4F7-B5B4-47B9-B670-BEBBC2BF4ADD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F43261A1-1F3E-4E4D-9976-55DE6F2B2E4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{55F11765-8A14-44B0-A05F-F2A2D54DAEEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34D5B2A2-E6A1-4A96-8DA1-AB2B7F07232A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{01A77646-7C24-4AD6-BE84-AC837CD722B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EB978442-CC9C-4DD4-AFFA-BCBDC96D454F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13534,7 +13534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E346170-41DF-44F3-ABE4-FD4B6EA29786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CA3175-C5F9-4D6C-A939-B0F394B5BE10}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -14742,18 +14742,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6FA7F2BB-785D-4C24-9D10-42AF158DFC72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A6B689A-E305-48B0-B2DC-6FE8084451A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3DA966D1-269F-458D-A043-0389740AF13D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B42889A9-C418-46AB-9FD4-88171C038580}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{266BA953-B6E4-4A4E-8F43-829FA4F72870}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A47D7655-7B18-42DC-874B-9E16723710ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{45399DD9-C483-4D4D-8406-0E5DD661945C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{476A61FB-8B3B-4585-A405-9DC9693DFBF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{67DA79D0-04C9-421F-965C-373630BAE6C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0DB08CAC-A258-4EB0-8359-EB1AE9258105}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C2E396A8-4843-49F6-B6EC-A2E08FAD5A8E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A12F13B3-9A75-41E2-AE3E-182EBC410A64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B111C7FC-7A94-4A94-BCCD-383DE2239607}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3CD6C2B5-A1D6-4A6C-9324-B35C97C68FAB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1151EAF4-1E21-4B3A-BC30-CBD977869D69}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{809FB275-85A8-4530-A110-9B87395E7CAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FBEA8F52-7BF7-4CD5-BF2E-8F76EAF602F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3E6CB3F7-091B-49C3-9619-B63CF3578BAE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{500A46D4-30E4-43A8-8290-B9E90032CAAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AD20DD7F-4124-4E6F-8801-92F613230101}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D6EDBD20-E69F-4FA2-8A0D-518A2A1755C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FA3DB61A-6D13-4A7B-B7EE-ECF12751F307}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AF958CEF-0A5F-43EB-9064-E245EE3BE8AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1CF14ACC-7250-43C0-8EC7-BFE4359638CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14766,7 +14766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0329099C-7C94-439E-B7A8-8C2AAC5ED6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4FAF3-0F8D-4D17-A530-CB5DB4142132}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -15980,18 +15980,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{536C2A15-DCD2-4EA4-8536-B7ADA4F9364A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1DCB2597-42BF-4B9F-8E3F-7189A63C32B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{885D90CA-61F2-4F18-A0CB-515EA1B5863D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8ED48587-9A12-4F1D-BDCE-881498343F79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{73CE7D6B-0110-4BB6-B646-35BBF1793ADB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{26B8BF24-329E-4565-86FE-7C63EDCAF807}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4A41CCB-3906-4808-BE3A-48D90A7B90AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB7FC2A6-0799-4DFA-B123-C8021FA1F7EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A4135D8F-97CD-4EB4-AEE3-7CAD4F15A24A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{310B4CE9-B454-4F51-A76D-186CFB378801}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7B4EEC45-63BB-4F34-8E4B-90069D612D8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F1D63C2A-FE2F-4C2C-9D3B-14A1C311DE6F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{728E7D7F-788E-4692-993C-63E673859ADD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5FAAA132-F3E5-4676-AF6F-04D4E7F26182}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6C8D9687-F7E2-4523-8903-C76EF53CDDBE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{727AFEE9-12B8-4DC0-BC56-EEFF4EF56F35}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D4C1D47D-A5E3-4AD6-A538-D46BA2505A5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BCA1E4EC-42FD-4A4F-9B68-D10E2B7B6417}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{829118B0-C986-4994-8524-7A618341EF27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1B5DA48B-6A78-484B-954E-1380951B1FA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C67ABCBF-D50A-4C5D-A81F-7CFCC0B90FC5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2BACA10B-7A3E-48A1-BEAC-CC82AF337818}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5F44012F-C239-4C59-84F0-53AA242DF5E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{708F1A60-D277-405C-8085-4AF7B5AEE124}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
